--- a/resources/assets/請求書レイアウト_幕王.xlsx
+++ b/resources/assets/請求書レイアウト_幕王.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E5D92-F263-421C-9EAE-BE4252FBAF87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubono/MyVagrant/Laravel/makuou/resources/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23235" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$A$1:$Q$38</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="O18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="O21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="O23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="O24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="O25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="O26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="O27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="O28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="L30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="L31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="L33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -483,6 +487,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>送料</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -490,13 +501,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]\-#,##0&quot;（税込）&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +779,133 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -780,140 +918,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
-    <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
-    <cellStyle name="通貨" xfId="3" builtinId="7"/>
+    <cellStyle name="桁区切り [0]" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨 [0]" xfId="3" builtinId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,7 +976,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6420213A-07EA-4F3C-9513-7B0C19FF3AB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6420213A-07EA-4F3C-9513-7B0C19FF3AB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,40 +1291,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:20" ht="9.9499999999999993" customHeight="1">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+    </row>
+    <row r="2" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1315,51 +1343,51 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
+    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1">
+      <c r="M3" s="16"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="1:20" ht="9.9499999999999993" customHeight="1">
+      <c r="M4" s="16"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1378,28 +1406,28 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:20" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
       <c r="S6" t="s">
         <v>9</v>
       </c>
@@ -1407,33 +1435,33 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" thickTop="1">
+    <row r="7" spans="1:20" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
       <c r="S7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1444,20 +1472,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
       <c r="S8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1468,81 +1496,81 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
       <c r="S9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="15" t="s">
+      <c r="L10" s="29"/>
+      <c r="M10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
       <c r="S10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+    <row r="11" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1553,15 +1581,15 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-    </row>
-    <row r="14" spans="1:20" ht="9.9499999999999993" customHeight="1">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1580,33 +1608,33 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="35">
-        <f>L32</f>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37">
+        <f>L33</f>
         <v>0</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36" t="s">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-    </row>
-    <row r="16" spans="1:20" ht="9.9499999999999993" customHeight="1" thickTop="1">
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1625,300 +1653,300 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="24.95" customHeight="1">
+    <row r="17" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22" t="s">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-    </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+    </row>
+    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="30" t="str">
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="23" t="str">
         <f>IF(AND(J18&lt;&gt;"",L18&lt;&gt;""),J18*L18,"")</f>
         <v/>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="7"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="30" t="str">
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="23" t="str">
         <f t="shared" ref="O19:O29" si="0">IF(AND(J19&lt;&gt;"",L19&lt;&gt;""),J19*L19,"")</f>
         <v/>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="30" t="str">
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="7"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="30" t="str">
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="30" t="str">
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="30" t="str">
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="7"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="30" t="str">
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-    </row>
-    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="7"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="30" t="str">
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="30" t="str">
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-    </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+    </row>
+    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="7"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="30" t="str">
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+    </row>
+    <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="7"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="30" t="str">
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="7"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="30" t="str">
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+    </row>
+    <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1928,21 +1956,21 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="41">
+      <c r="K30" s="11"/>
+      <c r="L30" s="21">
         <f>SUM(O18:Q29)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-    </row>
-    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1952,163 +1980,230 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="30">
+      <c r="K31" s="11"/>
+      <c r="L31" s="23">
         <f>L30*$T$6</f>
         <v>0</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-    </row>
-    <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+    </row>
+    <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="46">
-        <f>L30+L31</f>
+      <c r="J32" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49">
         <v>0</v>
       </c>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-    </row>
-    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
+    </row>
+    <row r="33" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="22" t="s">
+      <c r="J33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="15">
+        <f>L30+L31+L32</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-    </row>
-    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-    </row>
-    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-    </row>
-    <row r="38" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:17" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
     </row>
+    <row r="41" spans="1:17" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="A34:B37"/>
-    <mergeCell ref="C34:Q37"/>
-    <mergeCell ref="B33:F33"/>
+  <mergeCells count="85">
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
@@ -2125,71 +2220,29 @@
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A35:B38"/>
+    <mergeCell ref="C35:Q38"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:K29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:K29">
       <formula1>$S$6:$S$10</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M11" r:id="rId1" xr:uid="{59C79806-D3FF-473C-B33A-58C7924880D9}"/>
+    <hyperlink ref="M11" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
